--- a/V2/audience_data_sources/Preprocess_traffic_source_data.xlsx
+++ b/V2/audience_data_sources/Preprocess_traffic_source_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardpuig/iwall_audience/V2/audience_data_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6635CD62-5ABD-5745-B868-1031712847DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F38D6131-D291-8F43-9013-395778D03A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23640" yWindow="460" windowWidth="27120" windowHeight="19760" xr2:uid="{6A819B80-EC3D-B746-B95E-F2CEB13863F9}"/>
+    <workbookView xWindow="19080" yWindow="460" windowWidth="27120" windowHeight="19760" xr2:uid="{6A819B80-EC3D-B746-B95E-F2CEB13863F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Preprocess_traffic_source_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Preprocess_traffic_source_data_" sheetId="1" r:id="rId1"/>
     <sheet name="MALL_ID_TABLES" sheetId="2" r:id="rId2"/>
     <sheet name="TEMPLATES TEMPORALES" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
     <definedName name="mall_ids" localSheetId="1">MALL_ID_TABLES!$A$1:$B$82</definedName>
     <definedName name="mall_ids_1" localSheetId="1">MALL_ID_TABLES!$A$1:$B$82</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="116">
   <si>
     <t>PLAZA IMPERIAL</t>
   </si>
@@ -383,13 +383,37 @@
   <si>
     <t>  583857</t>
   </si>
+  <si>
+    <t>MALL SANTA ANITA</t>
+  </si>
+  <si>
+    <t>MOLINA PLAZA</t>
+  </si>
+  <si>
+    <t>MINKA</t>
+  </si>
+  <si>
+    <t>MEGAPLAZA VILLA EL SALVADOR</t>
+  </si>
+  <si>
+    <t>MEGAPLAZA CHORRILLOS</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>LARCOMAR</t>
+  </si>
+  <si>
+    <t>Mall Aventura Chiclayo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -533,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -558,7 +582,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9213403-A460-DE45-894B-82F0434AFB7B}">
-  <dimension ref="A1:G616"/>
+  <dimension ref="A1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="H421" sqref="H421"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C717" sqref="C717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15704,6 +15728,2856 @@
         <v>51</v>
       </c>
     </row>
+    <row r="617" spans="1:7">
+      <c r="A617" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C617" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D617" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E617" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F617" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G617" s="9">
+        <f>VLOOKUP(A617,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7">
+      <c r="A618" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C618" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D618" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E618" s="8">
+        <v>3420000</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G618" s="9">
+        <f>VLOOKUP(A618,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7">
+      <c r="A619" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C619" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D619" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E619" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F619" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G619" s="9">
+        <f>VLOOKUP(A619,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7">
+      <c r="A620" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C620" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D620" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E620" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F620" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G620" s="9">
+        <f>VLOOKUP(A620,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7">
+      <c r="A621" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C621" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D621" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E621" s="8">
+        <v>4000000</v>
+      </c>
+      <c r="F621" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G621" s="9">
+        <f>VLOOKUP(A621,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7">
+      <c r="A622" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C622" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D622" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E622" s="8">
+        <v>3850000</v>
+      </c>
+      <c r="F622" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G622" s="9">
+        <f>VLOOKUP(A622,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7">
+      <c r="A623" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C623" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D623" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E623" s="8">
+        <v>4100000</v>
+      </c>
+      <c r="F623" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G623" s="9">
+        <f>VLOOKUP(A623,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7">
+      <c r="A624" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C624" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D624" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E624" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="F624" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G624" s="9">
+        <f>VLOOKUP(A624,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7">
+      <c r="A625" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B625" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C625" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D625" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E625" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="F625" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G625" s="9">
+        <f>VLOOKUP(A625,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7">
+      <c r="A626" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B626" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C626" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D626" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E626" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="F626" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G626" s="9">
+        <f>VLOOKUP(A626,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7">
+      <c r="A627" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C627" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D627" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E627" s="8">
+        <v>3300000</v>
+      </c>
+      <c r="F627" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G627" s="9">
+        <f>VLOOKUP(A627,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7">
+      <c r="A628" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B628" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C628" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D628" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E628" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F628" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G628" s="9">
+        <f>VLOOKUP(A628,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7">
+      <c r="A629" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B629" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C629" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D629" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E629" s="8">
+        <v>3410000</v>
+      </c>
+      <c r="F629" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G629" s="9">
+        <f>VLOOKUP(A629,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7">
+      <c r="A630" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B630" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C630" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D630" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E630" s="8">
+        <v>3410000</v>
+      </c>
+      <c r="F630" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G630" s="9">
+        <f>VLOOKUP(A630,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7">
+      <c r="A631" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C631" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D631" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E631" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="F631" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G631" s="9">
+        <f>VLOOKUP(A631,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7">
+      <c r="A632" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B632" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C632" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D632" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E632" s="8">
+        <v>3880000</v>
+      </c>
+      <c r="F632" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G632" s="9">
+        <f>VLOOKUP(A632,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7">
+      <c r="A633" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C633" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D633" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E633" s="8">
+        <v>4100000</v>
+      </c>
+      <c r="F633" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G633" s="9">
+        <f>VLOOKUP(A633,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7">
+      <c r="A634" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B634" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C634" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D634" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E634" s="8">
+        <v>3980000</v>
+      </c>
+      <c r="F634" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G634" s="9">
+        <f>VLOOKUP(A634,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7">
+      <c r="A635" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C635" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D635" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E635" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="F635" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G635" s="9">
+        <f>VLOOKUP(A635,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7">
+      <c r="A636" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C636" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D636" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E636" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="F636" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G636" s="9">
+        <f>VLOOKUP(A636,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7">
+      <c r="A637" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C637" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D637" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E637" s="8">
+        <v>1700000</v>
+      </c>
+      <c r="F637" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G637" s="9">
+        <f>VLOOKUP(A637,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7">
+      <c r="A638" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B638" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C638" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D638" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E638" s="8">
+        <v>1770000</v>
+      </c>
+      <c r="F638" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G638" s="9">
+        <f>VLOOKUP(A638,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7">
+      <c r="A639" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B639" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C639" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D639" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E639" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="F639" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G639" s="9">
+        <f>VLOOKUP(A639,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7">
+      <c r="A640" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C640" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D640" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E640" s="8">
+        <v>1730000</v>
+      </c>
+      <c r="F640" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G640" s="9">
+        <f>VLOOKUP(A640,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
+      <c r="A641" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B641" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C641" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D641" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E641" s="8">
+        <v>1900000</v>
+      </c>
+      <c r="F641" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G641" s="9">
+        <f>VLOOKUP(A641,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="A642" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C642" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D642" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E642" s="8">
+        <v>1800000</v>
+      </c>
+      <c r="F642" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G642" s="9">
+        <f>VLOOKUP(A642,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7">
+      <c r="A643" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B643" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C643" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D643" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E643" s="8">
+        <v>1950000</v>
+      </c>
+      <c r="F643" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G643" s="9">
+        <f>VLOOKUP(A643,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
+      <c r="A644" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C644" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D644" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E644" s="8">
+        <v>1890000</v>
+      </c>
+      <c r="F644" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G644" s="9">
+        <f>VLOOKUP(A644,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7">
+      <c r="A645" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C645" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D645" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E645" s="8">
+        <v>1920000</v>
+      </c>
+      <c r="F645" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G645" s="9">
+        <f>VLOOKUP(A645,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7">
+      <c r="A646" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B646" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C646" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D646" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E646" s="8">
+        <v>1920000</v>
+      </c>
+      <c r="F646" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G646" s="9">
+        <f>VLOOKUP(A646,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
+      <c r="A647" t="s">
+        <v>78</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C647" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D647" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E647" s="8">
+        <v>1300000</v>
+      </c>
+      <c r="F647" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G647" s="9">
+        <f>VLOOKUP(A647,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
+      <c r="A648" t="s">
+        <v>78</v>
+      </c>
+      <c r="B648" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C648" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D648" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E648" s="8">
+        <v>1380000</v>
+      </c>
+      <c r="F648" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G648" s="9">
+        <f>VLOOKUP(A648,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="A649" t="s">
+        <v>78</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C649" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D649" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E649" s="8">
+        <v>1300000</v>
+      </c>
+      <c r="F649" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G649" s="9">
+        <f>VLOOKUP(A649,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
+      <c r="A650" t="s">
+        <v>78</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C650" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D650" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E650" s="8">
+        <v>1300000</v>
+      </c>
+      <c r="F650" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G650" s="9">
+        <f>VLOOKUP(A650,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
+      <c r="A651" t="s">
+        <v>78</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C651" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D651" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E651" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="F651" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G651" s="9">
+        <f>VLOOKUP(A651,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" t="s">
+        <v>78</v>
+      </c>
+      <c r="B652" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C652" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D652" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E652" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="F652" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G652" s="9">
+        <f>VLOOKUP(A652,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" t="s">
+        <v>78</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C653" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D653" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E653" s="8">
+        <v>1620000</v>
+      </c>
+      <c r="F653" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G653" s="9">
+        <f>VLOOKUP(A653,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="A654" t="s">
+        <v>78</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C654" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D654" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E654" s="8">
+        <v>1570000</v>
+      </c>
+      <c r="F654" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G654" s="9">
+        <f>VLOOKUP(A654,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
+      <c r="A655" t="s">
+        <v>78</v>
+      </c>
+      <c r="B655" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C655" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D655" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E655" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="F655" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G655" s="9">
+        <f>VLOOKUP(A655,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7">
+      <c r="A656" t="s">
+        <v>78</v>
+      </c>
+      <c r="B656" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C656" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D656" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E656" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="F656" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G656" s="9">
+        <f>VLOOKUP(A656,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7">
+      <c r="A657" t="s">
+        <v>76</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C657" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D657" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E657" s="8">
+        <v>900000</v>
+      </c>
+      <c r="F657" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G657" s="9">
+        <f>VLOOKUP(A657,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7">
+      <c r="A658" t="s">
+        <v>76</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C658" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D658" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E658" s="8">
+        <v>900000</v>
+      </c>
+      <c r="F658" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G658" s="9">
+        <f>VLOOKUP(A658,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7">
+      <c r="A659" t="s">
+        <v>76</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C659" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D659" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E659" s="8">
+        <v>910000</v>
+      </c>
+      <c r="F659" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G659" s="9">
+        <f>VLOOKUP(A659,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7">
+      <c r="A660" t="s">
+        <v>76</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C660" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D660" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E660" s="8">
+        <v>912000</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G660" s="9">
+        <f>VLOOKUP(A660,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7">
+      <c r="A661" t="s">
+        <v>76</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C661" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D661" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E661" s="8">
+        <v>980000</v>
+      </c>
+      <c r="F661" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G661" s="9">
+        <f>VLOOKUP(A661,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7">
+      <c r="A662" t="s">
+        <v>76</v>
+      </c>
+      <c r="B662" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C662" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D662" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E662" s="8">
+        <v>989000</v>
+      </c>
+      <c r="F662" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G662" s="9">
+        <f>VLOOKUP(A662,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7">
+      <c r="A663" t="s">
+        <v>76</v>
+      </c>
+      <c r="B663" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C663" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D663" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E663" s="8">
+        <v>1010000</v>
+      </c>
+      <c r="F663" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G663" s="9">
+        <f>VLOOKUP(A663,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="A664" t="s">
+        <v>76</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C664" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D664" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E664" s="8">
+        <v>997000</v>
+      </c>
+      <c r="F664" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G664" s="9">
+        <f>VLOOKUP(A664,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
+      <c r="A665" t="s">
+        <v>76</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C665" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D665" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E665" s="8">
+        <v>990000</v>
+      </c>
+      <c r="F665" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G665" s="9">
+        <f>VLOOKUP(A665,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7">
+      <c r="A666" t="s">
+        <v>76</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C666" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D666" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E666" s="8">
+        <v>990000</v>
+      </c>
+      <c r="F666" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G666" s="9">
+        <f>VLOOKUP(A666,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
+      <c r="A667" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C667" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D667" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E667" s="8">
+        <v>620000</v>
+      </c>
+      <c r="F667" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G667" s="9">
+        <f>VLOOKUP(A667,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7">
+      <c r="A668" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C668" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D668" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E668" s="8">
+        <v>621000</v>
+      </c>
+      <c r="F668" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G668" s="9">
+        <f>VLOOKUP(A668,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
+      <c r="A669" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B669" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C669" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D669" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E669" s="8">
+        <v>620000</v>
+      </c>
+      <c r="F669" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G669" s="9">
+        <f>VLOOKUP(A669,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7">
+      <c r="A670" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B670" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C670" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D670" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E670" s="8">
+        <v>620000</v>
+      </c>
+      <c r="F670" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G670" s="9">
+        <f>VLOOKUP(A670,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
+      <c r="A671" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C671" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D671" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E671" s="8">
+        <v>700000</v>
+      </c>
+      <c r="F671" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G671" s="9">
+        <f>VLOOKUP(A671,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
+      <c r="A672" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C672" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D672" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E672" s="8">
+        <v>650000</v>
+      </c>
+      <c r="F672" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G672" s="9">
+        <f>VLOOKUP(A672,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
+      <c r="A673" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B673" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C673" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D673" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E673" s="8">
+        <v>770000</v>
+      </c>
+      <c r="F673" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G673" s="9">
+        <f>VLOOKUP(A673,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
+      <c r="A674" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B674" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C674" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D674" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E674" s="8">
+        <v>660000</v>
+      </c>
+      <c r="F674" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G674" s="9">
+        <f>VLOOKUP(A674,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
+      <c r="A675" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C675" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D675" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E675" s="8">
+        <v>664000</v>
+      </c>
+      <c r="F675" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G675" s="9">
+        <f>VLOOKUP(A675,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7">
+      <c r="A676" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B676" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C676" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D676" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E676" s="8">
+        <v>664000</v>
+      </c>
+      <c r="F676" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G676" s="9">
+        <f>VLOOKUP(A676,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
+      <c r="A677" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B677" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C677" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D677" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E677" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="F677" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G677" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7">
+      <c r="A678" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C678" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D678" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E678" s="8">
+        <v>1320000</v>
+      </c>
+      <c r="F678" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G678" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
+      <c r="A679" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B679" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C679" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D679" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E679" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="F679" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G679" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7">
+      <c r="A680" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C680" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D680" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E680" s="8">
+        <v>1210000</v>
+      </c>
+      <c r="F680" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G680" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7">
+      <c r="A681" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B681" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C681" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D681" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E681" s="8">
+        <v>1210000</v>
+      </c>
+      <c r="F681" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G681" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7">
+      <c r="A682" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B682" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C682" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D682" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E682" s="8">
+        <v>2100000</v>
+      </c>
+      <c r="F682" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G682" s="9">
+        <f>VLOOKUP(A682,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
+      <c r="A683" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C683" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D683" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E683" s="8">
+        <v>2100000</v>
+      </c>
+      <c r="F683" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G683" s="9">
+        <f>VLOOKUP(A683,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7">
+      <c r="A684" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C684" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D684" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E684" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="F684" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G684" s="9">
+        <f>VLOOKUP(A684,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
+      <c r="A685" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B685" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C685" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D685" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E685" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="F685" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G685" s="9">
+        <f>VLOOKUP(A685,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7">
+      <c r="A686" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C686" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D686" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E686" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="F686" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G686" s="9">
+        <f>VLOOKUP(A686,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
+      <c r="A687" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C687" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D687" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E687" s="8">
+        <v>2350000</v>
+      </c>
+      <c r="F687" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G687" s="9">
+        <f>VLOOKUP(A687,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7">
+      <c r="A688" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C688" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D688" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E688" s="8">
+        <v>2400000</v>
+      </c>
+      <c r="F688" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G688" s="9">
+        <f>VLOOKUP(A688,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
+      <c r="A689" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B689" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C689" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D689" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E689" s="8">
+        <v>2400000</v>
+      </c>
+      <c r="F689" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G689" s="9">
+        <f>VLOOKUP(A689,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
+      <c r="A690" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C690" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D690" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E690" s="8">
+        <v>2400000</v>
+      </c>
+      <c r="F690" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G690" s="9">
+        <f>VLOOKUP(A690,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
+      <c r="A691" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C691" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D691" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E691" s="8">
+        <v>2400000</v>
+      </c>
+      <c r="F691" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G691" s="9">
+        <f>VLOOKUP(A691,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
+      <c r="A692" t="s">
+        <v>81</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C692" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D692" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E692" s="8">
+        <v>1300000</v>
+      </c>
+      <c r="F692" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G692" s="9">
+        <f>VLOOKUP(A692,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
+      <c r="A693" t="s">
+        <v>81</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C693" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D693" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E693" s="8">
+        <v>1300000</v>
+      </c>
+      <c r="F693" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G693" s="9">
+        <f>VLOOKUP(A693,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
+      <c r="A694" t="s">
+        <v>81</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C694" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D694" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E694" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="F694" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G694" s="9">
+        <f>VLOOKUP(A694,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
+      <c r="A695" t="s">
+        <v>81</v>
+      </c>
+      <c r="B695" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C695" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D695" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E695" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="F695" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G695" s="9">
+        <f>VLOOKUP(A695,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
+      <c r="A696" t="s">
+        <v>81</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C696" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D696" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E696" s="8">
+        <v>1300000</v>
+      </c>
+      <c r="F696" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G696" s="9">
+        <f>VLOOKUP(A696,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
+      <c r="A697" t="s">
+        <v>81</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C697" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D697" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E697" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="F697" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G697" s="9">
+        <f>VLOOKUP(A697,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7">
+      <c r="A698" t="s">
+        <v>81</v>
+      </c>
+      <c r="B698" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C698" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D698" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E698" s="8">
+        <v>1280000</v>
+      </c>
+      <c r="F698" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G698" s="9">
+        <f>VLOOKUP(A698,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
+      <c r="A699" t="s">
+        <v>81</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C699" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D699" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E699" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="F699" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G699" s="9">
+        <f>VLOOKUP(A699,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
+      <c r="A700" t="s">
+        <v>81</v>
+      </c>
+      <c r="B700" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C700" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D700" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E700" s="8">
+        <v>1200000</v>
+      </c>
+      <c r="F700" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G700" s="9">
+        <f>VLOOKUP(A700,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7">
+      <c r="A701" t="s">
+        <v>81</v>
+      </c>
+      <c r="B701" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C701" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D701" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E701" s="8">
+        <v>1220000</v>
+      </c>
+      <c r="F701" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G701" s="9">
+        <f>VLOOKUP(A701,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7">
+      <c r="A702" t="s">
+        <v>115</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C702" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D702" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E702" s="8">
+        <v>900000</v>
+      </c>
+      <c r="F702" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G702" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7">
+      <c r="A703" t="s">
+        <v>115</v>
+      </c>
+      <c r="B703" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C703" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D703" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E703" s="8">
+        <v>950000</v>
+      </c>
+      <c r="F703" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G703" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7">
+      <c r="A704" t="s">
+        <v>115</v>
+      </c>
+      <c r="B704" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C704" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D704" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E704" s="8">
+        <v>950000</v>
+      </c>
+      <c r="F704" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G704" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7">
+      <c r="A705" t="s">
+        <v>115</v>
+      </c>
+      <c r="B705" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C705" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D705" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E705" s="8">
+        <v>951000</v>
+      </c>
+      <c r="F705" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G705" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7">
+      <c r="A706" t="s">
+        <v>115</v>
+      </c>
+      <c r="B706" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C706" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D706" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E706" s="8">
+        <v>951000</v>
+      </c>
+      <c r="F706" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G706" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7">
+      <c r="A707" t="s">
+        <v>83</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C707" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D707" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E707" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="F707" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G707" s="9">
+        <f>VLOOKUP(A707,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7">
+      <c r="A708" t="s">
+        <v>83</v>
+      </c>
+      <c r="B708" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C708" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D708" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E708" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="F708" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G708" s="9">
+        <f>VLOOKUP(A708,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7">
+      <c r="A709" t="s">
+        <v>83</v>
+      </c>
+      <c r="B709" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C709" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D709" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E709" s="8">
+        <v>3800000</v>
+      </c>
+      <c r="F709" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G709" s="9">
+        <f>VLOOKUP(A709,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7">
+      <c r="A710" t="s">
+        <v>83</v>
+      </c>
+      <c r="B710" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C710" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D710" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E710" s="8">
+        <v>3800000</v>
+      </c>
+      <c r="F710" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G710" s="9">
+        <f>VLOOKUP(A710,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7">
+      <c r="A711" t="s">
+        <v>83</v>
+      </c>
+      <c r="B711" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C711" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D711" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E711" s="8">
+        <v>4200000</v>
+      </c>
+      <c r="F711" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G711" s="9">
+        <f>VLOOKUP(A711,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7">
+      <c r="A712" t="s">
+        <v>83</v>
+      </c>
+      <c r="B712" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C712" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D712" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E712" s="8">
+        <v>4100000</v>
+      </c>
+      <c r="F712" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G712" s="9">
+        <f>VLOOKUP(A712,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7">
+      <c r="A713" t="s">
+        <v>83</v>
+      </c>
+      <c r="B713" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C713" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D713" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E713" s="8">
+        <v>4180000</v>
+      </c>
+      <c r="F713" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G713" s="9">
+        <f>VLOOKUP(A713,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7">
+      <c r="A714" t="s">
+        <v>83</v>
+      </c>
+      <c r="B714" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C714" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D714" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E714" s="8">
+        <v>4000000</v>
+      </c>
+      <c r="F714" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G714" s="9">
+        <f>VLOOKUP(A714,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7">
+      <c r="A715" t="s">
+        <v>83</v>
+      </c>
+      <c r="B715" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C715" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D715" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E715" s="8">
+        <v>3990000</v>
+      </c>
+      <c r="F715" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G715" s="9">
+        <f>VLOOKUP(A715,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7">
+      <c r="A716" t="s">
+        <v>83</v>
+      </c>
+      <c r="B716" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C716" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D716" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E716" s="8">
+        <v>3990000</v>
+      </c>
+      <c r="F716" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G716" s="9">
+        <f>VLOOKUP(A716,MALL_ID_TABLES!$A$1:$B$640,2,FALSE)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7">
+      <c r="A717" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C717" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D717" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E717" s="8">
+        <v>690000</v>
+      </c>
+      <c r="F717" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G717" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7">
+      <c r="A718" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C718" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D718" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E718" s="8">
+        <v>690000</v>
+      </c>
+      <c r="F718" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G718" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7">
+      <c r="A719" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C719" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D719" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E719" s="8">
+        <v>691000</v>
+      </c>
+      <c r="F719" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G719" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
+      <c r="A720" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B720" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C720" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D720" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E720" s="8">
+        <v>691000</v>
+      </c>
+      <c r="F720" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G720" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
+      <c r="A721" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B721" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C721" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D721" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E721" s="8">
+        <v>700000</v>
+      </c>
+      <c r="F721" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G721" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
+      <c r="A722" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C722" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D722" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E722" s="8">
+        <v>650000</v>
+      </c>
+      <c r="F722" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G722" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
+      <c r="A723" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C723" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D723" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E723" s="8">
+        <v>659000</v>
+      </c>
+      <c r="F723" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G723" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
+      <c r="A724" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C724" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D724" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E724" s="8">
+        <v>650000</v>
+      </c>
+      <c r="F724" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G724" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
+      <c r="A725" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C725" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D725" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E725" s="8">
+        <v>648000</v>
+      </c>
+      <c r="F725" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G725" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
+      <c r="A726" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B726" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C726" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D726" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E726" s="8">
+        <v>648000</v>
+      </c>
+      <c r="F726" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G726" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7">
+      <c r="A727" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B727" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C727" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D727" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E727" s="8">
+        <v>680000</v>
+      </c>
+      <c r="F727" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G727" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
+      <c r="A728" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B728" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C728" s="2">
+        <v>44593</v>
+      </c>
+      <c r="D728" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E728" s="8">
+        <v>680000</v>
+      </c>
+      <c r="F728" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G728" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
+      <c r="A729" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B729" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C729" s="2">
+        <v>44621</v>
+      </c>
+      <c r="D729" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E729" s="8">
+        <v>680000</v>
+      </c>
+      <c r="F729" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G729" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
+      <c r="A730" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B730" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C730" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D730" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E730" s="8">
+        <v>680000</v>
+      </c>
+      <c r="F730" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G730" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
+      <c r="A731" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C731" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D731" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E731" s="8">
+        <v>720000</v>
+      </c>
+      <c r="F731" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G731" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
+      <c r="A732" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B732" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C732" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D732" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E732" s="8">
+        <v>710000</v>
+      </c>
+      <c r="F732" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G732" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
+      <c r="A733" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B733" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C733" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D733" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E733" s="8">
+        <v>712000</v>
+      </c>
+      <c r="F733" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G733" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
+      <c r="A734" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C734" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D734" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E734" s="8">
+        <v>710000</v>
+      </c>
+      <c r="F734" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G734" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
+      <c r="A735" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C735" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D735" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E735" s="8">
+        <v>711000</v>
+      </c>
+      <c r="F735" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G735" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
+      <c r="A736" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B736" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C736" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D736" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E736" s="8">
+        <v>711000</v>
+      </c>
+      <c r="F736" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G736" s="9">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15714,8 +18588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B12C58-3678-864E-9D7F-9C5B1ECB0602}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16391,7 +19265,7 @@
   <dimension ref="A3:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D21" sqref="D21:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16756,5 +19630,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>